--- a/策划文档/数值用表/MAGIC_card_hero_lv.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero_lv.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>400</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>500</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>600</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>700</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>800</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>900</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>1100</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>1200</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>1300</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -543,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>1400</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>1500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>1600</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>1700</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -575,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>1800</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>1900</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>2000</v>
+        <v>785</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -599,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>2100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -607,7 +607,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>2200</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>2300</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -623,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>2400</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>2500</v>
+        <v>888</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>2600</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -647,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>2700</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>2800</v>
+        <v>977</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -663,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>2900</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
